--- a/data/zenodo_ivan/generation/CHE_gen_onshorewind.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_onshorewind.xlsx
@@ -28,7 +28,7 @@
     <t>CHE_gen_onshorewind.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:30</t>
+    <t>2023-01-06 14:43:57</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>

--- a/data/zenodo_ivan/generation/CHE_gen_onshorewind.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_onshorewind.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/generation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A5D33-AA00-1B40-BEBE-BC9BE5503210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="32">
   <si>
     <t>Name:</t>
   </si>
@@ -91,9 +97,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>TODO: find</t>
-  </si>
-  <si>
     <t>onshorewind</t>
   </si>
   <si>
@@ -105,12 +108,21 @@
   <si>
     <t>Assumption</t>
   </si>
+  <si>
+    <t>Limited by capacity</t>
+  </si>
+  <si>
+    <t>Irrelevant for renewables</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,11 +185,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +271,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +323,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,12 +590,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -549,21 +610,21 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -575,21 +636,21 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -601,21 +662,21 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -627,21 +688,21 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -653,21 +714,21 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -679,21 +740,21 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -705,21 +766,21 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -731,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -757,21 +818,21 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -783,21 +844,21 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -809,21 +870,21 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -835,21 +896,21 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -861,21 +922,21 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
         <v>27</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -887,21 +948,21 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -913,21 +974,21 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
         <v>27</v>
       </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -939,21 +1000,21 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -965,21 +1026,21 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -991,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1017,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1043,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1069,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="J26" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1095,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1121,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1147,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
         <v>27</v>
       </c>
-      <c r="J29" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1173,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
         <v>27</v>
       </c>
-      <c r="J30" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1199,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
         <v>27</v>
       </c>
-      <c r="J31" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
         <v>28</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1225,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
         <v>27</v>
       </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
         <v>28</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1251,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
         <v>27</v>
       </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1277,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
         <v>27</v>
       </c>
-      <c r="J34" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
         <v>28</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1303,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
         <v>27</v>
       </c>
-      <c r="J35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1325,16 +1386,19 @@
       <c r="F36">
         <v>1990</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1342,16 +1406,19 @@
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1359,16 +1426,19 @@
       <c r="F38">
         <v>1992</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1376,16 +1446,19 @@
       <c r="F39">
         <v>1993</v>
       </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1393,16 +1466,19 @@
       <c r="F40">
         <v>1994</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1410,16 +1486,19 @@
       <c r="F41">
         <v>1995</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -1427,16 +1506,19 @@
       <c r="F42">
         <v>1996</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1444,16 +1526,19 @@
       <c r="F43">
         <v>1997</v>
       </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1461,16 +1546,19 @@
       <c r="F44">
         <v>1998</v>
       </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1478,16 +1566,19 @@
       <c r="F45">
         <v>1999</v>
       </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1495,16 +1586,19 @@
       <c r="F46">
         <v>2000</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1512,16 +1606,19 @@
       <c r="F47">
         <v>2001</v>
       </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -1529,16 +1626,19 @@
       <c r="F48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1546,16 +1646,19 @@
       <c r="F49">
         <v>2003</v>
       </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1563,16 +1666,19 @@
       <c r="F50">
         <v>2004</v>
       </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1580,16 +1686,19 @@
       <c r="F51">
         <v>2005</v>
       </c>
-      <c r="H51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -1597,16 +1706,19 @@
       <c r="F52">
         <v>2006</v>
       </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -1614,16 +1726,19 @@
       <c r="F53">
         <v>2007</v>
       </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="M53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -1631,16 +1746,19 @@
       <c r="F54">
         <v>2008</v>
       </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="M54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -1648,16 +1766,19 @@
       <c r="F55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -1665,16 +1786,19 @@
       <c r="F56">
         <v>2010</v>
       </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="M56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1682,16 +1806,19 @@
       <c r="F57">
         <v>2011</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="M57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1699,16 +1826,19 @@
       <c r="F58">
         <v>2012</v>
       </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1716,16 +1846,19 @@
       <c r="F59">
         <v>2013</v>
       </c>
-      <c r="H59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1733,16 +1866,19 @@
       <c r="F60">
         <v>2014</v>
       </c>
-      <c r="H60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -1750,16 +1886,19 @@
       <c r="F61">
         <v>2015</v>
       </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="M61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1767,16 +1906,19 @@
       <c r="F62">
         <v>2016</v>
       </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="M62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -1784,16 +1926,19 @@
       <c r="F63">
         <v>2017</v>
       </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -1801,16 +1946,19 @@
       <c r="F64">
         <v>2018</v>
       </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -1818,16 +1966,19 @@
       <c r="F65">
         <v>2019</v>
       </c>
-      <c r="H65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -1835,16 +1986,19 @@
       <c r="F66">
         <v>1990</v>
       </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="M66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -1852,16 +2006,19 @@
       <c r="F67">
         <v>1991</v>
       </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="M67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -1869,16 +2026,19 @@
       <c r="F68">
         <v>1992</v>
       </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -1886,16 +2046,19 @@
       <c r="F69">
         <v>1993</v>
       </c>
-      <c r="H69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -1903,16 +2066,19 @@
       <c r="F70">
         <v>1994</v>
       </c>
-      <c r="H70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -1920,16 +2086,19 @@
       <c r="F71">
         <v>1995</v>
       </c>
-      <c r="H71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="M71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -1937,16 +2106,19 @@
       <c r="F72">
         <v>1996</v>
       </c>
-      <c r="H72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -1954,16 +2126,19 @@
       <c r="F73">
         <v>1997</v>
       </c>
-      <c r="H73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -1971,16 +2146,19 @@
       <c r="F74">
         <v>1998</v>
       </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="M74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -1988,16 +2166,19 @@
       <c r="F75">
         <v>1999</v>
       </c>
-      <c r="H75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="M75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -2005,16 +2186,19 @@
       <c r="F76">
         <v>2000</v>
       </c>
-      <c r="H76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="M76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -2022,16 +2206,19 @@
       <c r="F77">
         <v>2001</v>
       </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="M77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -2039,16 +2226,19 @@
       <c r="F78">
         <v>2002</v>
       </c>
-      <c r="H78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="M78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -2056,16 +2246,19 @@
       <c r="F79">
         <v>2003</v>
       </c>
-      <c r="H79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="M79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -2073,16 +2266,19 @@
       <c r="F80">
         <v>2004</v>
       </c>
-      <c r="H80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="M80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -2090,16 +2286,19 @@
       <c r="F81">
         <v>2005</v>
       </c>
-      <c r="H81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="M81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -2107,16 +2306,19 @@
       <c r="F82">
         <v>2006</v>
       </c>
-      <c r="H82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="M82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2124,16 +2326,19 @@
       <c r="F83">
         <v>2007</v>
       </c>
-      <c r="H83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -2141,16 +2346,19 @@
       <c r="F84">
         <v>2008</v>
       </c>
-      <c r="H84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="M84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -2158,16 +2366,19 @@
       <c r="F85">
         <v>2009</v>
       </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="M85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -2175,16 +2386,19 @@
       <c r="F86">
         <v>2010</v>
       </c>
-      <c r="H86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="M86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -2192,16 +2406,19 @@
       <c r="F87">
         <v>2011</v>
       </c>
-      <c r="H87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="M87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -2209,16 +2426,19 @@
       <c r="F88">
         <v>2012</v>
       </c>
-      <c r="H88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="M88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -2226,16 +2446,19 @@
       <c r="F89">
         <v>2013</v>
       </c>
-      <c r="H89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="M89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -2243,16 +2466,19 @@
       <c r="F90">
         <v>2014</v>
       </c>
-      <c r="H90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="M90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2260,16 +2486,19 @@
       <c r="F91">
         <v>2015</v>
       </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="M91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2277,16 +2506,19 @@
       <c r="F92">
         <v>2016</v>
       </c>
-      <c r="H92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="M92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -2294,16 +2526,19 @@
       <c r="F93">
         <v>2017</v>
       </c>
-      <c r="H93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="M93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -2311,16 +2546,19 @@
       <c r="F94">
         <v>2018</v>
       </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="M94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2328,16 +2566,19 @@
       <c r="F95">
         <v>2019</v>
       </c>
-      <c r="H95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="M95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -2346,15 +2587,18 @@
         <v>1990</v>
       </c>
       <c r="H96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -2363,15 +2607,18 @@
         <v>1991</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -2380,15 +2627,18 @@
         <v>1992</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -2397,15 +2647,18 @@
         <v>1993</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -2414,15 +2667,18 @@
         <v>1994</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -2431,15 +2687,18 @@
         <v>1995</v>
       </c>
       <c r="H101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -2448,15 +2707,18 @@
         <v>1996</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -2465,15 +2727,18 @@
         <v>1997</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -2482,15 +2747,18 @@
         <v>1998</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -2499,15 +2767,18 @@
         <v>1999</v>
       </c>
       <c r="H105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>31</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -2516,15 +2787,18 @@
         <v>2000</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -2533,15 +2807,18 @@
         <v>2001</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -2550,15 +2827,18 @@
         <v>2002</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -2567,15 +2847,18 @@
         <v>2003</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -2584,15 +2867,18 @@
         <v>2004</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -2601,15 +2887,18 @@
         <v>2005</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -2618,15 +2907,18 @@
         <v>2006</v>
       </c>
       <c r="H112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -2635,15 +2927,18 @@
         <v>2007</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -2652,15 +2947,18 @@
         <v>2008</v>
       </c>
       <c r="H114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -2669,15 +2967,18 @@
         <v>2009</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>31</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -2686,15 +2987,18 @@
         <v>2010</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -2703,15 +3007,18 @@
         <v>2011</v>
       </c>
       <c r="H117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>31</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -2720,15 +3027,18 @@
         <v>2012</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -2737,15 +3047,18 @@
         <v>2013</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -2754,15 +3067,18 @@
         <v>2014</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>31</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -2771,15 +3087,18 @@
         <v>2015</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>31</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -2788,15 +3107,18 @@
         <v>2016</v>
       </c>
       <c r="H122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -2805,15 +3127,18 @@
         <v>2017</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -2822,15 +3147,18 @@
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -2839,7 +3167,7 @@
         <v>2019</v>
       </c>
       <c r="H125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
